--- a/biology/Zoologie/Carabus_scheidleri/Carabus_scheidleri.xlsx
+++ b/biology/Zoologie/Carabus_scheidleri/Carabus_scheidleri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carabus scheidleri est une espèce de coléoptères de la famille des Carabidae, de la sous-famille des Carabinae et du sous-genre des Morphocarabus. Elle est endémique d'Europe où on la trouve en Autriche, en République tchèque, en Allemagne, en Hongrie, au Liechtenstein, en Pologne, en Slovaquie et en Ukraine.
 </t>
@@ -511,7 +523,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Carabus scheidleri helleri Ganglbauer, 1892 - République tchèque (Bohême, Moravie), Hongrie, Slovaquie
 Carabus scheidleri kollari Palliardi, 1825 -  Hongrie, Roumanie, Serbie
@@ -520,9 +534,43 @@
 Carabus scheidleri scheidleri Panzer, 1799 - Autriche, République tchèque (Bohême, Moravie), Allemagne, Hongrie, Pologne, Slovaquie
 Carabus scheidleri seriatissimus Reitter, 1896 - Roumanie, Ukraine
 Carabus scheidleri versicolor Frivaldsky, 1835 - Bulgarie, Serbie
-Carabus scheidleri zawadzkii Kraatz, 1854 - Pologne, Slovaquie, Ukraine
-Synonymes de sous-espèces
-Synonymes de Carabus scheidleri helleri
+Carabus scheidleri zawadzkii Kraatz, 1854 - Pologne, Slovaquie, Ukraine</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Carabus_scheidleri</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carabus_scheidleri</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes de sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Synonymes de Carabus scheidleri helleri
 Carabus scheidleri scheidleri var. helleri Ganglbauer, 1892
 Eucarabus scheidleri helleri (Ganglbauer, 1892)
 Carabus scheidleri var. morawitzi Kraatz, 1887 nec Ganglbauer, 1887
